--- a/data/trans_orig/P19E_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19E_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E21C1A-2419-45DD-98DA-919223743844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{562691E5-1660-426D-87FD-A34610709856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF596388-AA4C-40A9-B535-C8EB1F09C781}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0EE07D26-DAA6-4F8E-AF39-635EFE5D20C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>26,17%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>73,83%</t>
   </si>
   <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>79,26%</t>
   </si>
   <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>27,75%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
   <si>
     <t>22,83%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>72,25%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>82,3%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>77,17%</t>
   </si>
   <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +195,55 @@
     <t>29,46%</t>
   </si>
   <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>23,7%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
   </si>
   <si>
     <t>70,54%</t>
   </si>
   <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>76,3%</t>
   </si>
   <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,49 +252,55 @@
     <t>35,26%</t>
   </si>
   <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>31,01%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>64,74%</t>
   </si>
   <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
   </si>
   <si>
     <t>78,52%</t>
   </si>
   <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>71,69%</t>
   </si>
   <si>
-    <t>68,99%</t>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -303,55 +309,55 @@
     <t>39,52%</t>
   </si>
   <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
   </si>
   <si>
     <t>27,15%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
   </si>
   <si>
     <t>60,48%</t>
   </si>
   <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
   </si>
   <si>
     <t>72,85%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>66,82%</t>
   </si>
   <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -360,109 +366,109 @@
     <t>50,24%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
   </si>
   <si>
     <t>38,61%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>43,63%</t>
   </si>
   <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
   </si>
   <si>
     <t>49,76%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
   </si>
   <si>
     <t>61,39%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>34,8%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>29,23%</t>
   </si>
   <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>65,2%</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -474,328 +480,328 @@
     <t>8,54%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>91,72%</t>
   </si>
   <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>76,68%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>80,07%</t>
   </si>
   <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>89,13%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>11,93%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
   </si>
   <si>
     <t>84,19%</t>
   </si>
   <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
   </si>
   <si>
     <t>37,33%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
   </si>
   <si>
     <t>27,94%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
+    <t>23,63%</t>
   </si>
   <si>
     <t>62,67%</t>
   </si>
   <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
   </si>
   <si>
     <t>72,06%</t>
   </si>
   <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>68,25%</t>
   </si>
   <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>76,37%</t>
   </si>
   <si>
     <t>25,27%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
   </si>
   <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>14,42%</t>
+    <t>14,43%</t>
   </si>
   <si>
     <t>17,21%</t>
@@ -804,19 +810,16 @@
     <t>20,42%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
+    <t>19,27%</t>
   </si>
   <si>
     <t>74,73%</t>
   </si>
   <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
   </si>
   <si>
     <t>83,89%</t>
@@ -825,16 +828,13 @@
     <t>82,79%</t>
   </si>
   <si>
-    <t>85,58%</t>
+    <t>85,57%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>80,73%</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7618544-1144-4C37-8A54-EA451B677D02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD4A070-7E7D-4761-B6B9-B41424C182FB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1868,10 +1868,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,13 +1886,13 @@
         <v>407095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>463</v>
@@ -1901,13 +1901,13 @@
         <v>503347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>832</v>
@@ -1916,13 +1916,13 @@
         <v>910441</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,7 +1978,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1990,13 +1990,13 @@
         <v>181297</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -2005,13 +2005,13 @@
         <v>130949</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>274</v>
@@ -2020,13 +2020,13 @@
         <v>312246</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2041,13 @@
         <v>277432</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>305</v>
@@ -2056,13 +2056,13 @@
         <v>351387</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>554</v>
@@ -2071,13 +2071,13 @@
         <v>628819</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,7 +2133,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2145,13 +2145,13 @@
         <v>282476</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
@@ -2160,13 +2160,13 @@
         <v>285673</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>536</v>
@@ -2175,13 +2175,13 @@
         <v>568150</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2196,13 @@
         <v>279740</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>386</v>
@@ -2211,13 +2211,13 @@
         <v>454287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>684</v>
@@ -2226,13 +2226,13 @@
         <v>734026</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2300,13 @@
         <v>1147607</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>768</v>
@@ -2315,13 +2315,13 @@
         <v>826642</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1860</v>
@@ -2330,13 +2330,13 @@
         <v>1974249</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2351,13 @@
         <v>2150361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2491</v>
@@ -2366,13 +2366,13 @@
         <v>2629000</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>4537</v>
@@ -2381,13 +2381,13 @@
         <v>4779361</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,7 +2443,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DA2376-5E89-46D7-B875-A38C0A38014A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D298256-3E9D-4906-9713-FA15304953EA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2482,7 +2482,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2589,13 +2589,13 @@
         <v>32262</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2604,13 +2604,13 @@
         <v>28409</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -2619,13 +2619,13 @@
         <v>60671</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2640,13 @@
         <v>345417</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -2655,13 +2655,13 @@
         <v>326548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>337</v>
@@ -2670,13 +2670,13 @@
         <v>671965</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2744,13 @@
         <v>99897</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -2759,13 +2759,13 @@
         <v>38803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -2777,10 +2777,10 @@
         <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2795,13 @@
         <v>328499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>417</v>
@@ -2810,13 +2810,13 @@
         <v>459774</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>649</v>
@@ -2828,10 +2828,10 @@
         <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2899,13 @@
         <v>111062</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -2914,13 +2914,13 @@
         <v>63386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
@@ -2929,13 +2929,13 @@
         <v>174448</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2950,13 @@
         <v>446190</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>753</v>
@@ -2965,13 +2965,13 @@
         <v>519930</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>1189</v>
@@ -2980,13 +2980,13 @@
         <v>966120</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3054,13 @@
         <v>167566</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -3069,13 +3069,13 @@
         <v>103179</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>330</v>
@@ -3084,13 +3084,13 @@
         <v>270745</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3105,13 @@
         <v>553272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>975</v>
@@ -3120,13 +3120,13 @@
         <v>642435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>1470</v>
@@ -3135,13 +3135,13 @@
         <v>1195707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,7 +3197,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3209,13 +3209,13 @@
         <v>184115</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>162</v>
@@ -3224,13 +3224,13 @@
         <v>93553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>361</v>
@@ -3239,13 +3239,13 @@
         <v>277669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3260,13 @@
         <v>414098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>835</v>
@@ -3275,13 +3275,13 @@
         <v>498103</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>1296</v>
@@ -3290,13 +3290,13 @@
         <v>912200</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,7 +3352,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3364,13 +3364,13 @@
         <v>256729</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>537</v>
@@ -3379,13 +3379,13 @@
         <v>282363</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>924</v>
@@ -3394,13 +3394,13 @@
         <v>539092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3415,13 @@
         <v>431024</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>1138</v>
@@ -3430,13 +3430,13 @@
         <v>728064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>1765</v>
@@ -3445,13 +3445,13 @@
         <v>1159087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3519,13 @@
         <v>851631</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>1020</v>
@@ -3534,13 +3534,13 @@
         <v>609694</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>1972</v>
@@ -3549,13 +3549,13 @@
         <v>1461325</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3570,13 @@
         <v>2518499</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>4303</v>
@@ -3585,13 +3585,13 @@
         <v>3174854</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>6706</v>
@@ -3600,10 +3600,10 @@
         <v>5693353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>265</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19E_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19E_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{562691E5-1660-426D-87FD-A34610709856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EB62733-C651-4A5E-BCB8-82A60B9B5D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0EE07D26-DAA6-4F8E-AF39-635EFE5D20C4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{65C5127B-39F6-4E86-9439-FFC5590E2F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="309">
   <si>
     <t>Población que se cepilla los dientes una o ninguna vez al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -132,7 +132,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>27,75%</t>
@@ -189,7 +189,7 @@
     <t>79,97%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>29,46%</t>
@@ -246,7 +246,7 @@
     <t>78,5%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>35,26%</t>
@@ -303,7 +303,7 @@
     <t>74,21%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>39,52%</t>
@@ -360,61 +360,118 @@
     <t>69,86%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
   </si>
   <si>
     <t>34,8%</t>
@@ -477,364 +534,436 @@
     <t>Población que se cepilla los dientes una o ninguna vez al día en 2023 (Tasa respuesta: 99,26%)</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
 </sst>
 </file>
@@ -1246,8 +1375,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD4A070-7E7D-4761-B6B9-B41424C182FB}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41242728-58C6-45DC-80D0-A7CC58784828}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2139,10 +2268,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="D19" s="7">
-        <v>282476</v>
+        <v>154657</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2154,10 +2283,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="I19" s="7">
-        <v>285673</v>
+        <v>110394</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2169,10 +2298,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>536</v>
+        <v>254</v>
       </c>
       <c r="N19" s="7">
-        <v>568150</v>
+        <v>265052</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2190,10 +2319,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>298</v>
+        <v>164</v>
       </c>
       <c r="D20" s="7">
-        <v>279740</v>
+        <v>167122</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2205,10 +2334,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>386</v>
+        <v>234</v>
       </c>
       <c r="I20" s="7">
-        <v>454287</v>
+        <v>250751</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2220,10 +2349,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>684</v>
+        <v>398</v>
       </c>
       <c r="N20" s="7">
-        <v>734026</v>
+        <v>417873</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2241,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>596</v>
+        <v>313</v>
       </c>
       <c r="D21" s="7">
-        <v>562216</v>
+        <v>321779</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2256,10 +2385,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>624</v>
+        <v>339</v>
       </c>
       <c r="I21" s="7">
-        <v>739960</v>
+        <v>361145</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2271,10 +2400,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1220</v>
+        <v>652</v>
       </c>
       <c r="N21" s="7">
-        <v>1302176</v>
+        <v>682925</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2288,55 +2417,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1092</v>
+        <v>149</v>
       </c>
       <c r="D22" s="7">
-        <v>1147607</v>
+        <v>127819</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>768</v>
+        <v>133</v>
       </c>
       <c r="I22" s="7">
-        <v>826642</v>
+        <v>175279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1860</v>
+        <v>282</v>
       </c>
       <c r="N22" s="7">
-        <v>1974249</v>
+        <v>303098</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,49 +2474,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2046</v>
+        <v>134</v>
       </c>
       <c r="D23" s="7">
-        <v>2150361</v>
+        <v>112618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>2491</v>
+        <v>152</v>
       </c>
       <c r="I23" s="7">
-        <v>2629000</v>
+        <v>203535</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>4537</v>
+        <v>286</v>
       </c>
       <c r="N23" s="7">
-        <v>4779361</v>
+        <v>316153</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,63 +2525,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>283</v>
+      </c>
+      <c r="D24" s="7">
+        <v>240437</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>285</v>
+      </c>
+      <c r="I24" s="7">
+        <v>378814</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>568</v>
+      </c>
+      <c r="N24" s="7">
+        <v>619251</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1092</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1147607</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>768</v>
+      </c>
+      <c r="I25" s="7">
+        <v>826642</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1860</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1974249</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2046</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2150361</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2491</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2628999</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4537</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4779361</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3138</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3297968</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3259</v>
       </c>
-      <c r="I24" s="7">
-        <v>3455642</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3455641</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6397</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6753610</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2465,8 +2750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D298256-3E9D-4906-9713-FA15304953EA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B004AF17-42AF-4C48-8BBD-A559701C837B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2482,7 +2767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2586,46 +2871,46 @@
         <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>32262</v>
+        <v>33667</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>28409</v>
+        <v>26456</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>60671</v>
+        <v>60124</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,46 +2922,46 @@
         <v>152</v>
       </c>
       <c r="D5" s="7">
-        <v>345417</v>
+        <v>366320</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
       </c>
       <c r="I5" s="7">
-        <v>326548</v>
+        <v>286744</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>337</v>
       </c>
       <c r="N5" s="7">
-        <v>671965</v>
+        <v>653063</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2973,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2703,7 +2988,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2718,7 +3003,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2741,46 +3026,46 @@
         <v>70</v>
       </c>
       <c r="D7" s="7">
-        <v>99897</v>
+        <v>101994</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>38803</v>
+        <v>36591</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
       </c>
       <c r="N7" s="7">
-        <v>138700</v>
+        <v>138584</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,46 +3077,46 @@
         <v>232</v>
       </c>
       <c r="D8" s="7">
-        <v>328499</v>
+        <v>321553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>417</v>
       </c>
       <c r="I8" s="7">
-        <v>459774</v>
+        <v>474913</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>649</v>
       </c>
       <c r="N8" s="7">
-        <v>788273</v>
+        <v>796467</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +3128,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2858,7 +3143,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2873,7 +3158,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2896,46 +3181,46 @@
         <v>110</v>
       </c>
       <c r="D10" s="7">
-        <v>111062</v>
+        <v>109492</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
       </c>
       <c r="I10" s="7">
-        <v>63386</v>
+        <v>59027</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
       </c>
       <c r="N10" s="7">
-        <v>174448</v>
+        <v>168519</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,46 +3232,46 @@
         <v>436</v>
       </c>
       <c r="D11" s="7">
-        <v>446190</v>
+        <v>426846</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>753</v>
       </c>
       <c r="I11" s="7">
-        <v>519930</v>
+        <v>483278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>1189</v>
       </c>
       <c r="N11" s="7">
-        <v>966120</v>
+        <v>910125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,7 +3283,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3013,7 +3298,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>583316</v>
+        <v>542305</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3028,7 +3313,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1140568</v>
+        <v>1078644</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3051,46 +3336,46 @@
         <v>166</v>
       </c>
       <c r="D13" s="7">
-        <v>167566</v>
+        <v>167083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
       </c>
       <c r="I13" s="7">
-        <v>103179</v>
+        <v>96641</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>330</v>
       </c>
       <c r="N13" s="7">
-        <v>270745</v>
+        <v>263724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,46 +3387,46 @@
         <v>495</v>
       </c>
       <c r="D14" s="7">
-        <v>553272</v>
+        <v>717652</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>975</v>
       </c>
       <c r="I14" s="7">
-        <v>642435</v>
+        <v>614718</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>1470</v>
       </c>
       <c r="N14" s="7">
-        <v>1195707</v>
+        <v>1332371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,7 +3438,7 @@
         <v>661</v>
       </c>
       <c r="D15" s="7">
-        <v>720838</v>
+        <v>884735</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3168,7 +3453,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>745614</v>
+        <v>711359</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3183,7 +3468,7 @@
         <v>1800</v>
       </c>
       <c r="N15" s="7">
-        <v>1466452</v>
+        <v>1596095</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3206,46 +3491,46 @@
         <v>199</v>
       </c>
       <c r="D16" s="7">
-        <v>184115</v>
+        <v>175335</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>162</v>
       </c>
       <c r="I16" s="7">
-        <v>93553</v>
+        <v>87618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>361</v>
       </c>
       <c r="N16" s="7">
-        <v>277669</v>
+        <v>262954</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,46 +3542,46 @@
         <v>461</v>
       </c>
       <c r="D17" s="7">
-        <v>414098</v>
+        <v>384036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>835</v>
       </c>
       <c r="I17" s="7">
-        <v>498103</v>
+        <v>455495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>1296</v>
       </c>
       <c r="N17" s="7">
-        <v>912200</v>
+        <v>839531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,7 +3593,7 @@
         <v>660</v>
       </c>
       <c r="D18" s="7">
-        <v>598213</v>
+        <v>559371</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3323,7 +3608,7 @@
         <v>997</v>
       </c>
       <c r="I18" s="7">
-        <v>591656</v>
+        <v>543113</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3338,7 +3623,7 @@
         <v>1657</v>
       </c>
       <c r="N18" s="7">
-        <v>1189869</v>
+        <v>1102485</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3358,49 +3643,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>387</v>
+        <v>182</v>
       </c>
       <c r="D19" s="7">
-        <v>256729</v>
+        <v>120481</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
-        <v>537</v>
+        <v>184</v>
       </c>
       <c r="I19" s="7">
-        <v>282363</v>
+        <v>88286</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
-        <v>924</v>
+        <v>366</v>
       </c>
       <c r="N19" s="7">
-        <v>539092</v>
+        <v>208767</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,49 +3694,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>627</v>
+        <v>385</v>
       </c>
       <c r="D20" s="7">
-        <v>431024</v>
+        <v>245508</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
-        <v>1138</v>
+        <v>637</v>
       </c>
       <c r="I20" s="7">
-        <v>728064</v>
+        <v>517294</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
-        <v>1765</v>
+        <v>1022</v>
       </c>
       <c r="N20" s="7">
-        <v>1159087</v>
+        <v>762802</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,10 +3745,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1014</v>
+        <v>567</v>
       </c>
       <c r="D21" s="7">
-        <v>687753</v>
+        <v>365989</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3475,10 +3760,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1675</v>
+        <v>821</v>
       </c>
       <c r="I21" s="7">
-        <v>1010427</v>
+        <v>605580</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3490,10 +3775,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2689</v>
+        <v>1388</v>
       </c>
       <c r="N21" s="7">
-        <v>1698179</v>
+        <v>971569</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3507,55 +3792,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>952</v>
+        <v>205</v>
       </c>
       <c r="D22" s="7">
-        <v>851631</v>
+        <v>123307</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
-        <v>1020</v>
+        <v>353</v>
       </c>
       <c r="I22" s="7">
-        <v>609694</v>
+        <v>170696</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
-        <v>1972</v>
+        <v>558</v>
       </c>
       <c r="N22" s="7">
-        <v>1461325</v>
+        <v>294003</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,49 +3849,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2403</v>
+        <v>242</v>
       </c>
       <c r="D23" s="7">
-        <v>2518499</v>
+        <v>152180</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
-        <v>4303</v>
+        <v>501</v>
       </c>
       <c r="I23" s="7">
-        <v>3174854</v>
+        <v>243055</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
-        <v>6706</v>
+        <v>743</v>
       </c>
       <c r="N23" s="7">
-        <v>5693353</v>
+        <v>395235</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,63 +3900,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>447</v>
+      </c>
+      <c r="D24" s="7">
+        <v>275487</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>854</v>
+      </c>
+      <c r="I24" s="7">
+        <v>413751</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1301</v>
+      </c>
+      <c r="N24" s="7">
+        <v>689238</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>952</v>
+      </c>
+      <c r="D25" s="7">
+        <v>831359</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1020</v>
+      </c>
+      <c r="I25" s="7">
+        <v>565315</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1972</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1396675</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2403</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2614095</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4303</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3075498</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6706</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5689593</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3355</v>
       </c>
-      <c r="D24" s="7">
-        <v>3370130</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3445454</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5323</v>
       </c>
-      <c r="I24" s="7">
-        <v>3784548</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3640813</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8678</v>
       </c>
-      <c r="N24" s="7">
-        <v>7154678</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7086268</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
